--- a/src/main/java/com/Automation/TestData/Testdata.xlsx
+++ b/src/main/java/com/Automation/TestData/Testdata.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u s e r\eclipse-workspace\POM_DataDriven\src\main\java\com\Automation\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13725" windowHeight="6180"/>
   </bookViews>
@@ -13,7 +18,6 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>gunashekarchalla@gmail.com</t>
   </si>
@@ -47,6 +51,18 @@
   </si>
   <si>
     <t>chgsr123@gmail.com</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>Brokerage account</t>
+  </si>
+  <si>
+    <t>Retirement account</t>
   </si>
 </sst>
 </file>
@@ -382,18 +398,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -441,6 +457,20 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
